--- a/abaqus_portfolio/data/datos.xlsx
+++ b/abaqus_portfolio/data/datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de8e941653fa33ed/Abaqus/abaqus_portfolio/abaqus_portfolio/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF3446C-2D9C-6B4B-9973-D0B63438881F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{ACF3446C-2D9C-6B4B-9973-D0B63438881F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5761C370-D2A8-4232-A6E4-0CADDBA89016}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31420" windowHeight="17820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weights" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,16 +161,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -173,6 +188,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,19 +457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D378"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44607</v>
       </c>
@@ -477,8 +497,9 @@
       <c r="D2" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44607</v>
       </c>
@@ -491,8 +512,9 @@
       <c r="D3" s="2">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44607</v>
       </c>
@@ -505,8 +527,9 @@
       <c r="D4" s="2">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44607</v>
       </c>
@@ -519,8 +542,9 @@
       <c r="D5" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44607</v>
       </c>
@@ -533,8 +557,9 @@
       <c r="D6" s="2">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44607</v>
       </c>
@@ -547,8 +572,9 @@
       <c r="D7" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44607</v>
       </c>
@@ -561,8 +587,9 @@
       <c r="D8" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44607</v>
       </c>
@@ -575,8 +602,9 @@
       <c r="D9" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44607</v>
       </c>
@@ -589,8 +617,9 @@
       <c r="D10" s="2">
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44607</v>
       </c>
@@ -603,8 +632,9 @@
       <c r="D11" s="2">
         <v>0.215</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44607</v>
       </c>
@@ -617,8 +647,9 @@
       <c r="D12" s="2">
         <v>0.14599999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44607</v>
       </c>
@@ -631,8 +662,9 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44607</v>
       </c>
@@ -645,8 +677,9 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44607</v>
       </c>
@@ -659,8 +692,9 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44607</v>
       </c>
@@ -673,8 +707,9 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44607</v>
       </c>
@@ -687,8 +722,9 @@
       <c r="D17" s="2">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44607</v>
       </c>
@@ -701,2162 +737,2164 @@
       <c r="D18" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -2864,7 +2902,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2872,16 +2910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B368" sqref="B368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -2937,7 +2975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44607</v>
       </c>
@@ -2993,7 +3031,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44608</v>
       </c>
@@ -3049,7 +3087,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44609</v>
       </c>
@@ -3105,7 +3143,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44610</v>
       </c>
@@ -3161,7 +3199,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44611</v>
       </c>
@@ -3217,7 +3255,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44612</v>
       </c>
@@ -3273,7 +3311,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44613</v>
       </c>
@@ -3329,7 +3367,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44614</v>
       </c>
@@ -3385,7 +3423,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44615</v>
       </c>
@@ -3441,7 +3479,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44616</v>
       </c>
@@ -3497,7 +3535,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44617</v>
       </c>
@@ -3553,7 +3591,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44618</v>
       </c>
@@ -3609,7 +3647,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44619</v>
       </c>
@@ -3665,7 +3703,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44620</v>
       </c>
@@ -3721,7 +3759,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44621</v>
       </c>
@@ -3777,7 +3815,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44622</v>
       </c>
@@ -3833,7 +3871,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44623</v>
       </c>
@@ -3889,7 +3927,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44624</v>
       </c>
@@ -3945,7 +3983,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44625</v>
       </c>
@@ -4001,7 +4039,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44626</v>
       </c>
@@ -4057,7 +4095,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44627</v>
       </c>
@@ -4113,7 +4151,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44628</v>
       </c>
@@ -4169,7 +4207,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44629</v>
       </c>
@@ -4225,7 +4263,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44630</v>
       </c>
@@ -4281,7 +4319,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44631</v>
       </c>
@@ -4337,7 +4375,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44632</v>
       </c>
@@ -4393,7 +4431,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44633</v>
       </c>
@@ -4449,7 +4487,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44634</v>
       </c>
@@ -4505,7 +4543,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>44635</v>
       </c>
@@ -4561,7 +4599,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>44636</v>
       </c>
@@ -4617,7 +4655,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44637</v>
       </c>
@@ -4673,7 +4711,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44638</v>
       </c>
@@ -4729,7 +4767,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44639</v>
       </c>
@@ -4785,7 +4823,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44640</v>
       </c>
@@ -4841,7 +4879,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44641</v>
       </c>
@@ -4897,7 +4935,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44642</v>
       </c>
@@ -4953,7 +4991,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44643</v>
       </c>
@@ -5009,7 +5047,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44644</v>
       </c>
@@ -5065,7 +5103,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44645</v>
       </c>
@@ -5121,7 +5159,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44646</v>
       </c>
@@ -5177,7 +5215,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>44647</v>
       </c>
@@ -5233,7 +5271,7 @@
         <v>104.65</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44648</v>
       </c>
@@ -5289,7 +5327,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>44649</v>
       </c>
@@ -5345,7 +5383,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44650</v>
       </c>
@@ -5401,7 +5439,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44651</v>
       </c>
@@ -5457,7 +5495,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44652</v>
       </c>
@@ -5513,7 +5551,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44653</v>
       </c>
@@ -5569,7 +5607,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44654</v>
       </c>
@@ -5625,7 +5663,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44655</v>
       </c>
@@ -5681,7 +5719,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44656</v>
       </c>
@@ -5737,7 +5775,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44657</v>
       </c>
@@ -5793,7 +5831,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>44658</v>
       </c>
@@ -5849,7 +5887,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44659</v>
       </c>
@@ -5905,7 +5943,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44660</v>
       </c>
@@ -5961,7 +5999,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>44661</v>
       </c>
@@ -6017,7 +6055,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>44662</v>
       </c>
@@ -6073,7 +6111,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44663</v>
       </c>
@@ -6129,7 +6167,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44664</v>
       </c>
@@ -6185,7 +6223,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44665</v>
       </c>
@@ -6241,7 +6279,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44666</v>
       </c>
@@ -6297,7 +6335,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44667</v>
       </c>
@@ -6353,7 +6391,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44668</v>
       </c>
@@ -6409,7 +6447,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44669</v>
       </c>
@@ -6465,7 +6503,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44670</v>
       </c>
@@ -6521,7 +6559,7 @@
         <v>104.66</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44671</v>
       </c>
@@ -6577,7 +6615,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44672</v>
       </c>
@@ -6633,7 +6671,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44673</v>
       </c>
@@ -6689,7 +6727,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44674</v>
       </c>
@@ -6745,7 +6783,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44675</v>
       </c>
@@ -6801,7 +6839,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44676</v>
       </c>
@@ -6857,7 +6895,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44677</v>
       </c>
@@ -6913,7 +6951,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44678</v>
       </c>
@@ -6969,7 +7007,7 @@
         <v>104.67</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44679</v>
       </c>
@@ -7025,7 +7063,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44680</v>
       </c>
@@ -7081,7 +7119,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44681</v>
       </c>
@@ -7137,7 +7175,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44682</v>
       </c>
@@ -7193,7 +7231,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44683</v>
       </c>
@@ -7249,7 +7287,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44684</v>
       </c>
@@ -7305,7 +7343,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44685</v>
       </c>
@@ -7361,7 +7399,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44686</v>
       </c>
@@ -7417,7 +7455,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44687</v>
       </c>
@@ -7473,7 +7511,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44688</v>
       </c>
@@ -7529,7 +7567,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44689</v>
       </c>
@@ -7585,7 +7623,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44690</v>
       </c>
@@ -7641,7 +7679,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44691</v>
       </c>
@@ -7697,7 +7735,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44692</v>
       </c>
@@ -7753,7 +7791,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44693</v>
       </c>
@@ -7809,7 +7847,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44694</v>
       </c>
@@ -7865,7 +7903,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44695</v>
       </c>
@@ -7921,7 +7959,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44696</v>
       </c>
@@ -7977,7 +8015,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44697</v>
       </c>
@@ -8033,7 +8071,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44698</v>
       </c>
@@ -8089,7 +8127,7 @@
         <v>104.69</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44699</v>
       </c>
@@ -8145,7 +8183,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44700</v>
       </c>
@@ -8201,7 +8239,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44701</v>
       </c>
@@ -8257,7 +8295,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44702</v>
       </c>
@@ -8313,7 +8351,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44703</v>
       </c>
@@ -8369,7 +8407,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44704</v>
       </c>
@@ -8425,7 +8463,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44705</v>
       </c>
@@ -8481,7 +8519,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44706</v>
       </c>
@@ -8537,7 +8575,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44707</v>
       </c>
@@ -8593,7 +8631,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44708</v>
       </c>
@@ -8649,7 +8687,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44709</v>
       </c>
@@ -8705,7 +8743,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44710</v>
       </c>
@@ -8761,7 +8799,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44711</v>
       </c>
@@ -8817,7 +8855,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44712</v>
       </c>
@@ -8873,7 +8911,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44713</v>
       </c>
@@ -8929,7 +8967,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44714</v>
       </c>
@@ -8985,7 +9023,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44715</v>
       </c>
@@ -9041,7 +9079,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44716</v>
       </c>
@@ -9097,7 +9135,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44717</v>
       </c>
@@ -9153,7 +9191,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44718</v>
       </c>
@@ -9209,7 +9247,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44719</v>
       </c>
@@ -9265,7 +9303,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44720</v>
       </c>
@@ -9321,7 +9359,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44721</v>
       </c>
@@ -9377,7 +9415,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44722</v>
       </c>
@@ -9433,7 +9471,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44723</v>
       </c>
@@ -9489,7 +9527,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44724</v>
       </c>
@@ -9545,7 +9583,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44725</v>
       </c>
@@ -9601,7 +9639,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44726</v>
       </c>
@@ -9657,7 +9695,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44727</v>
       </c>
@@ -9713,7 +9751,7 @@
         <v>104.71</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44728</v>
       </c>
@@ -9769,7 +9807,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44729</v>
       </c>
@@ -9825,7 +9863,7 @@
         <v>104.73</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>44730</v>
       </c>
@@ -9881,7 +9919,7 @@
         <v>104.73</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>44731</v>
       </c>
@@ -9937,7 +9975,7 @@
         <v>104.73</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>44732</v>
       </c>
@@ -9993,7 +10031,7 @@
         <v>104.73</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>44733</v>
       </c>
@@ -10049,7 +10087,7 @@
         <v>104.74</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>44734</v>
       </c>
@@ -10105,7 +10143,7 @@
         <v>104.74</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>44735</v>
       </c>
@@ -10161,7 +10199,7 @@
         <v>104.74</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>44736</v>
       </c>
@@ -10217,7 +10255,7 @@
         <v>104.75</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>44737</v>
       </c>
@@ -10273,7 +10311,7 @@
         <v>104.75</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>44738</v>
       </c>
@@ -10329,7 +10367,7 @@
         <v>104.75</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>44739</v>
       </c>
@@ -10385,7 +10423,7 @@
         <v>104.75</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>44740</v>
       </c>
@@ -10441,7 +10479,7 @@
         <v>104.75</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>44741</v>
       </c>
@@ -10497,7 +10535,7 @@
         <v>104.76</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>44742</v>
       </c>
@@ -10553,7 +10591,7 @@
         <v>104.76</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>44743</v>
       </c>
@@ -10609,7 +10647,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>44744</v>
       </c>
@@ -10665,7 +10703,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>44745</v>
       </c>
@@ -10721,7 +10759,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>44746</v>
       </c>
@@ -10777,7 +10815,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>44747</v>
       </c>
@@ -10833,7 +10871,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>44748</v>
       </c>
@@ -10889,7 +10927,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>44749</v>
       </c>
@@ -10945,7 +10983,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>44750</v>
       </c>
@@ -11001,7 +11039,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>44751</v>
       </c>
@@ -11057,7 +11095,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>44752</v>
       </c>
@@ -11113,7 +11151,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>44753</v>
       </c>
@@ -11169,7 +11207,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>44754</v>
       </c>
@@ -11225,7 +11263,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>44755</v>
       </c>
@@ -11281,7 +11319,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>44756</v>
       </c>
@@ -11337,7 +11375,7 @@
         <v>104.77</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>44757</v>
       </c>
@@ -11393,7 +11431,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>44758</v>
       </c>
@@ -11449,7 +11487,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>44759</v>
       </c>
@@ -11505,7 +11543,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>44760</v>
       </c>
@@ -11561,7 +11599,7 @@
         <v>104.78</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>44761</v>
       </c>
@@ -11617,7 +11655,7 @@
         <v>104.79</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>44762</v>
       </c>
@@ -11673,7 +11711,7 @@
         <v>104.79</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>44763</v>
       </c>
@@ -11729,7 +11767,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>44764</v>
       </c>
@@ -11785,7 +11823,7 @@
         <v>104.81</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>44765</v>
       </c>
@@ -11841,7 +11879,7 @@
         <v>104.81</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>44766</v>
       </c>
@@ -11897,7 +11935,7 @@
         <v>104.81</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>44767</v>
       </c>
@@ -11953,7 +11991,7 @@
         <v>104.81</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>44768</v>
       </c>
@@ -12009,7 +12047,7 @@
         <v>104.81</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>44769</v>
       </c>
@@ -12065,7 +12103,7 @@
         <v>104.81</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>44770</v>
       </c>
@@ -12121,7 +12159,7 @@
         <v>104.82</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>44771</v>
       </c>
@@ -12177,7 +12215,7 @@
         <v>104.83</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>44772</v>
       </c>
@@ -12233,7 +12271,7 @@
         <v>104.83</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>44773</v>
       </c>
@@ -12289,7 +12327,7 @@
         <v>104.83</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>44774</v>
       </c>
@@ -12345,7 +12383,7 @@
         <v>104.83</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>44775</v>
       </c>
@@ -12401,7 +12439,7 @@
         <v>104.84</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>44776</v>
       </c>
@@ -12457,7 +12495,7 @@
         <v>104.85</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>44777</v>
       </c>
@@ -12513,7 +12551,7 @@
         <v>104.86</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>44778</v>
       </c>
@@ -12569,7 +12607,7 @@
         <v>104.87</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>44779</v>
       </c>
@@ -12625,7 +12663,7 @@
         <v>104.87</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>44780</v>
       </c>
@@ -12681,7 +12719,7 @@
         <v>104.87</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>44781</v>
       </c>
@@ -12737,7 +12775,7 @@
         <v>104.88</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>44782</v>
       </c>
@@ -12793,7 +12831,7 @@
         <v>104.88</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>44783</v>
       </c>
@@ -12849,7 +12887,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>44784</v>
       </c>
@@ -12905,7 +12943,7 @@
         <v>104.89</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>44785</v>
       </c>
@@ -12961,7 +12999,7 @@
         <v>104.91</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>44786</v>
       </c>
@@ -13017,7 +13055,7 @@
         <v>104.91</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>44787</v>
       </c>
@@ -13073,7 +13111,7 @@
         <v>104.91</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>44788</v>
       </c>
@@ -13129,7 +13167,7 @@
         <v>104.91</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>44789</v>
       </c>
@@ -13185,7 +13223,7 @@
         <v>104.92</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>44790</v>
       </c>
@@ -13241,7 +13279,7 @@
         <v>104.92</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>44791</v>
       </c>
@@ -13297,7 +13335,7 @@
         <v>104.93</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>44792</v>
       </c>
@@ -13353,7 +13391,7 @@
         <v>104.94</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>44793</v>
       </c>
@@ -13409,7 +13447,7 @@
         <v>104.94</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>44794</v>
       </c>
@@ -13465,7 +13503,7 @@
         <v>104.94</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>44795</v>
       </c>
@@ -13521,7 +13559,7 @@
         <v>104.95</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>44796</v>
       </c>
@@ -13577,7 +13615,7 @@
         <v>104.95</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>44797</v>
       </c>
@@ -13633,7 +13671,7 @@
         <v>104.95</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>44798</v>
       </c>
@@ -13689,7 +13727,7 @@
         <v>104.96</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>44799</v>
       </c>
@@ -13745,7 +13783,7 @@
         <v>104.97</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>44800</v>
       </c>
@@ -13801,7 +13839,7 @@
         <v>104.97</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>44801</v>
       </c>
@@ -13857,7 +13895,7 @@
         <v>104.97</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>44802</v>
       </c>
@@ -13913,7 +13951,7 @@
         <v>104.97</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>44803</v>
       </c>
@@ -13969,7 +14007,7 @@
         <v>104.98</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>44804</v>
       </c>
@@ -14025,7 +14063,7 @@
         <v>104.98</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>44805</v>
       </c>
@@ -14081,7 +14119,7 @@
         <v>104.99</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>44806</v>
       </c>
@@ -14137,7 +14175,7 @@
         <v>105.01</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>44807</v>
       </c>
@@ -14193,7 +14231,7 @@
         <v>105.01</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>44808</v>
       </c>
@@ -14249,7 +14287,7 @@
         <v>105.01</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>44809</v>
       </c>
@@ -14305,7 +14343,7 @@
         <v>105.02</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>44810</v>
       </c>
@@ -14361,7 +14399,7 @@
         <v>105.02</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>44811</v>
       </c>
@@ -14417,7 +14455,7 @@
         <v>105.03</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>44812</v>
       </c>
@@ -14473,7 +14511,7 @@
         <v>105.04</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>44813</v>
       </c>
@@ -14529,7 +14567,7 @@
         <v>105.05</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>44814</v>
       </c>
@@ -14585,7 +14623,7 @@
         <v>105.05</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>44815</v>
       </c>
@@ -14641,7 +14679,7 @@
         <v>105.05</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>44816</v>
       </c>
@@ -14697,7 +14735,7 @@
         <v>105.06</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>44817</v>
       </c>
@@ -14753,7 +14791,7 @@
         <v>105.06</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>44818</v>
       </c>
@@ -14809,7 +14847,7 @@
         <v>105.07</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>44819</v>
       </c>
@@ -14865,7 +14903,7 @@
         <v>105.07</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>44820</v>
       </c>
@@ -14921,7 +14959,7 @@
         <v>105.09</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>44821</v>
       </c>
@@ -14977,7 +15015,7 @@
         <v>105.09</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>44822</v>
       </c>
@@ -15033,7 +15071,7 @@
         <v>105.09</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>44823</v>
       </c>
@@ -15089,7 +15127,7 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>44824</v>
       </c>
@@ -15145,7 +15183,7 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>44825</v>
       </c>
@@ -15201,7 +15239,7 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>44826</v>
       </c>
@@ -15257,7 +15295,7 @@
         <v>105.11</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>44827</v>
       </c>
@@ -15313,7 +15351,7 @@
         <v>105.12</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>44828</v>
       </c>
@@ -15369,7 +15407,7 @@
         <v>105.12</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>44829</v>
       </c>
@@ -15425,7 +15463,7 @@
         <v>105.12</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>44830</v>
       </c>
@@ -15481,7 +15519,7 @@
         <v>105.13</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>44831</v>
       </c>
@@ -15537,7 +15575,7 @@
         <v>105.13</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>44832</v>
       </c>
@@ -15593,7 +15631,7 @@
         <v>105.14</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>44833</v>
       </c>
@@ -15649,7 +15687,7 @@
         <v>105.14</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>44834</v>
       </c>
@@ -15705,7 +15743,7 @@
         <v>105.15</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>44835</v>
       </c>
@@ -15761,7 +15799,7 @@
         <v>105.15</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>44836</v>
       </c>
@@ -15817,7 +15855,7 @@
         <v>105.15</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>44837</v>
       </c>
@@ -15873,7 +15911,7 @@
         <v>105.16</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>44838</v>
       </c>
@@ -15929,7 +15967,7 @@
         <v>105.17</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>44839</v>
       </c>
@@ -15985,7 +16023,7 @@
         <v>105.18</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>44840</v>
       </c>
@@ -16041,7 +16079,7 @@
         <v>105.18</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>44841</v>
       </c>
@@ -16097,7 +16135,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>44842</v>
       </c>
@@ -16153,7 +16191,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>44843</v>
       </c>
@@ -16209,7 +16247,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>44844</v>
       </c>
@@ -16265,7 +16303,7 @@
         <v>105.21</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>44845</v>
       </c>
@@ -16321,7 +16359,7 @@
         <v>105.21</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>44846</v>
       </c>
@@ -16377,7 +16415,7 @@
         <v>105.22</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>44847</v>
       </c>
@@ -16433,7 +16471,7 @@
         <v>105.22</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>44848</v>
       </c>
@@ -16489,7 +16527,7 @@
         <v>105.24</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>44849</v>
       </c>
@@ -16545,7 +16583,7 @@
         <v>105.24</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>44850</v>
       </c>
@@ -16601,7 +16639,7 @@
         <v>105.24</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>44851</v>
       </c>
@@ -16657,7 +16695,7 @@
         <v>105.25</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>44852</v>
       </c>
@@ -16713,7 +16751,7 @@
         <v>105.25</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>44853</v>
       </c>
@@ -16769,7 +16807,7 @@
         <v>105.25</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>44854</v>
       </c>
@@ -16825,7 +16863,7 @@
         <v>105.26</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>44855</v>
       </c>
@@ -16881,7 +16919,7 @@
         <v>105.28</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>44856</v>
       </c>
@@ -16937,7 +16975,7 @@
         <v>105.28</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>44857</v>
       </c>
@@ -16993,7 +17031,7 @@
         <v>105.28</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>44858</v>
       </c>
@@ -17049,7 +17087,7 @@
         <v>105.28</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>44859</v>
       </c>
@@ -17105,7 +17143,7 @@
         <v>105.29</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>44860</v>
       </c>
@@ -17161,7 +17199,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>44861</v>
       </c>
@@ -17217,7 +17255,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>44862</v>
       </c>
@@ -17273,7 +17311,7 @@
         <v>105.32</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>44863</v>
       </c>
@@ -17329,7 +17367,7 @@
         <v>105.32</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>44864</v>
       </c>
@@ -17385,7 +17423,7 @@
         <v>105.32</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>44865</v>
       </c>
@@ -17441,7 +17479,7 @@
         <v>105.32</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>44866</v>
       </c>
@@ -17497,7 +17535,7 @@
         <v>105.33</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>44867</v>
       </c>
@@ -17553,7 +17591,7 @@
         <v>105.34</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>44868</v>
       </c>
@@ -17609,7 +17647,7 @@
         <v>105.36</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>44869</v>
       </c>
@@ -17665,7 +17703,7 @@
         <v>105.39</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>44870</v>
       </c>
@@ -17721,7 +17759,7 @@
         <v>105.39</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>44871</v>
       </c>
@@ -17777,7 +17815,7 @@
         <v>105.39</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>44872</v>
       </c>
@@ -17833,7 +17871,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>44873</v>
       </c>
@@ -17889,7 +17927,7 @@
         <v>105.41</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>44874</v>
       </c>
@@ -17945,7 +17983,7 @@
         <v>105.42</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>44875</v>
       </c>
@@ -18001,7 +18039,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>44876</v>
       </c>
@@ -18057,7 +18095,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>44877</v>
       </c>
@@ -18113,7 +18151,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>44878</v>
       </c>
@@ -18169,7 +18207,7 @@
         <v>105.45</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>44879</v>
       </c>
@@ -18225,7 +18263,7 @@
         <v>105.46</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>44880</v>
       </c>
@@ -18281,7 +18319,7 @@
         <v>105.46</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>44881</v>
       </c>
@@ -18337,7 +18375,7 @@
         <v>105.47</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>44882</v>
       </c>
@@ -18393,7 +18431,7 @@
         <v>105.48</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>44883</v>
       </c>
@@ -18449,7 +18487,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>44884</v>
       </c>
@@ -18505,7 +18543,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>44885</v>
       </c>
@@ -18561,7 +18599,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>44886</v>
       </c>
@@ -18617,7 +18655,7 @@
         <v>105.51</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>44887</v>
       </c>
@@ -18673,7 +18711,7 @@
         <v>105.51</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>44888</v>
       </c>
@@ -18729,7 +18767,7 @@
         <v>105.53</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>44889</v>
       </c>
@@ -18785,7 +18823,7 @@
         <v>105.53</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>44890</v>
       </c>
@@ -18841,7 +18879,7 @@
         <v>105.55</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>44891</v>
       </c>
@@ -18897,7 +18935,7 @@
         <v>105.55</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>44892</v>
       </c>
@@ -18953,7 +18991,7 @@
         <v>105.55</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>44893</v>
       </c>
@@ -19009,7 +19047,7 @@
         <v>105.56</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>44894</v>
       </c>
@@ -19065,7 +19103,7 @@
         <v>105.57</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>44895</v>
       </c>
@@ -19121,7 +19159,7 @@
         <v>105.57</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>44896</v>
       </c>
@@ -19177,7 +19215,7 @@
         <v>105.59</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>44897</v>
       </c>
@@ -19233,7 +19271,7 @@
         <v>105.62</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>44898</v>
       </c>
@@ -19289,7 +19327,7 @@
         <v>105.62</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>44899</v>
       </c>
@@ -19345,7 +19383,7 @@
         <v>105.62</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>44900</v>
       </c>
@@ -19401,7 +19439,7 @@
         <v>105.63</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>44901</v>
       </c>
@@ -19457,7 +19495,7 @@
         <v>105.65</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>44902</v>
       </c>
@@ -19513,7 +19551,7 @@
         <v>105.66</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>44903</v>
       </c>
@@ -19569,7 +19607,7 @@
         <v>105.68</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>44904</v>
       </c>
@@ -19625,7 +19663,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>44905</v>
       </c>
@@ -19681,7 +19719,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>44906</v>
       </c>
@@ -19737,7 +19775,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>44907</v>
       </c>
@@ -19793,7 +19831,7 @@
         <v>105.71</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>44908</v>
       </c>
@@ -19849,7 +19887,7 @@
         <v>105.72</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>44909</v>
       </c>
@@ -19905,7 +19943,7 @@
         <v>105.73</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>44910</v>
       </c>
@@ -19961,7 +19999,7 @@
         <v>105.74</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>44911</v>
       </c>
@@ -20017,7 +20055,7 @@
         <v>105.76</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>44912</v>
       </c>
@@ -20073,7 +20111,7 @@
         <v>105.76</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>44913</v>
       </c>
@@ -20129,7 +20167,7 @@
         <v>105.76</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>44914</v>
       </c>
@@ -20185,7 +20223,7 @@
         <v>105.77</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>44915</v>
       </c>
@@ -20241,7 +20279,7 @@
         <v>105.78</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>44916</v>
       </c>
@@ -20297,7 +20335,7 @@
         <v>105.79</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>44917</v>
       </c>
@@ -20353,7 +20391,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>44918</v>
       </c>
@@ -20409,7 +20447,7 @@
         <v>105.83</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>44919</v>
       </c>
@@ -20465,7 +20503,7 @@
         <v>105.83</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>44920</v>
       </c>
@@ -20521,7 +20559,7 @@
         <v>105.83</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>44921</v>
       </c>
@@ -20577,7 +20615,7 @@
         <v>105.83</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>44922</v>
       </c>
@@ -20633,7 +20671,7 @@
         <v>105.84</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>44923</v>
       </c>
@@ -20689,7 +20727,7 @@
         <v>105.85</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>44924</v>
       </c>
@@ -20745,7 +20783,7 @@
         <v>105.85</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>44925</v>
       </c>
@@ -20801,7 +20839,7 @@
         <v>105.87</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>44926</v>
       </c>
@@ -20857,7 +20895,7 @@
         <v>105.87</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>44927</v>
       </c>
@@ -20913,7 +20951,7 @@
         <v>105.87</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>44928</v>
       </c>
@@ -20969,7 +21007,7 @@
         <v>105.87</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>44929</v>
       </c>
@@ -21025,7 +21063,7 @@
         <v>105.88</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>44930</v>
       </c>
@@ -21081,7 +21119,7 @@
         <v>105.88</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>44931</v>
       </c>
@@ -21137,7 +21175,7 @@
         <v>105.89</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>44932</v>
       </c>
@@ -21193,7 +21231,7 @@
         <v>105.92</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>44933</v>
       </c>
@@ -21249,7 +21287,7 @@
         <v>105.92</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>44934</v>
       </c>
@@ -21305,7 +21343,7 @@
         <v>105.92</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>44935</v>
       </c>
@@ -21361,7 +21399,7 @@
         <v>105.93</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>44936</v>
       </c>
@@ -21417,7 +21455,7 @@
         <v>105.94</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>44937</v>
       </c>
@@ -21473,7 +21511,7 @@
         <v>105.95</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>44938</v>
       </c>
@@ -21529,7 +21567,7 @@
         <v>105.96</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>44939</v>
       </c>
@@ -21585,7 +21623,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>44940</v>
       </c>
@@ -21641,7 +21679,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>44941</v>
       </c>
@@ -21697,7 +21735,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>44942</v>
       </c>
@@ -21753,7 +21791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>44943</v>
       </c>
@@ -21809,7 +21847,7 @@
         <v>106.01</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>44944</v>
       </c>
@@ -21865,7 +21903,7 @@
         <v>106.02</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>44945</v>
       </c>
@@ -21921,7 +21959,7 @@
         <v>106.03</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>44946</v>
       </c>
@@ -21977,7 +22015,7 @@
         <v>106.06</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>44947</v>
       </c>
@@ -22033,7 +22071,7 @@
         <v>106.06</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>44948</v>
       </c>
@@ -22089,7 +22127,7 @@
         <v>106.06</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>44949</v>
       </c>
@@ -22145,7 +22183,7 @@
         <v>106.07</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>44950</v>
       </c>
@@ -22201,7 +22239,7 @@
         <v>106.08</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>44951</v>
       </c>
@@ -22257,7 +22295,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>44952</v>
       </c>
@@ -22313,7 +22351,7 @@
         <v>106.09</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>44953</v>
       </c>
@@ -22369,7 +22407,7 @@
         <v>106.12</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>44954</v>
       </c>
@@ -22425,7 +22463,7 @@
         <v>106.12</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>44955</v>
       </c>
@@ -22481,7 +22519,7 @@
         <v>106.12</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>44956</v>
       </c>
@@ -22537,7 +22575,7 @@
         <v>106.13</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>44957</v>
       </c>
@@ -22593,7 +22631,7 @@
         <v>106.14</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>44958</v>
       </c>
@@ -22649,7 +22687,7 @@
         <v>106.15</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>44959</v>
       </c>
@@ -22705,7 +22743,7 @@
         <v>106.16</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>44960</v>
       </c>
@@ -22761,7 +22799,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>44961</v>
       </c>
@@ -22817,7 +22855,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>44962</v>
       </c>
@@ -22873,7 +22911,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>44963</v>
       </c>
@@ -22929,7 +22967,7 @@
         <v>106.21</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>44964</v>
       </c>
@@ -22985,7 +23023,7 @@
         <v>106.22</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>44965</v>
       </c>
@@ -23041,7 +23079,7 @@
         <v>106.24</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>44966</v>
       </c>
@@ -23097,7 +23135,7 @@
         <v>106.24</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>44967</v>
       </c>
@@ -23153,7 +23191,7 @@
         <v>106.28</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>44968</v>
       </c>
@@ -23209,7 +23247,7 @@
         <v>106.28</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>44969</v>
       </c>
@@ -23265,7 +23303,7 @@
         <v>106.28</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>44970</v>
       </c>
@@ -23321,7 +23359,7 @@
         <v>106.29</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>44971</v>
       </c>
@@ -23377,7 +23415,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>44972</v>
       </c>
@@ -23433,7 +23471,7 @@
         <v>106.31</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>44973</v>
       </c>
